--- a/biology/Zoologie/Jiangshanosaurus/Jiangshanosaurus.xlsx
+++ b/biology/Zoologie/Jiangshanosaurus/Jiangshanosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jiangshanosaurus lixianensis
 Jianshanosaurus est un genre éteint de dinosaures titanosaures  ayant vécu au Crétacé inférieur (Albien) il y a environ 105 millions d'années, dans ce qui est aujourd'hui la Chine.
-L'espèce type et seule espèce, Jiangshanosaurus lixianensis, a été décrite par Feng Tang et ses collègues en 2001[1].
+L'espèce type et seule espèce, Jiangshanosaurus lixianensis, a été décrite par Feng Tang et ses collègues en 2001.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses restes fossiles ont été découverts dans la formation géologique de Jinhua dans le village de Lixian près de la ville de Jiangshan (qui lui a donné son nom) dans la province de Zhejiang de l'Est de la Chine.
-Le matériel fossile inclut des morceaux de l'épaule, du dos, du pelvis, du fémur et de la queue[1].
+Le matériel fossile inclut des morceaux de l'épaule, du dos, du pelvis, du fémur et de la queue.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jiangshanosaurus a été attribué par ses inventeurs en 2001 à la famille des Titanosauridae. Upchurch et ses collègues, en 2004, notent que ses vertèbres caudales sont concaves sur leur partie avant, indiquant qu'il appartiendrait bien à la famille des Titanosauridae[2].
-Cependant, en 2017, Alexander Arianov et Hans-Dieter Sues, dans le cadre d'une revue des dinosaures sauropodes d'Asie centrale, le rattachent directement au clade des Titanosauria[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jiangshanosaurus a été attribué par ses inventeurs en 2001 à la famille des Titanosauridae. Upchurch et ses collègues, en 2004, notent que ses vertèbres caudales sont concaves sur leur partie avant, indiquant qu'il appartiendrait bien à la famille des Titanosauridae.
+Cependant, en 2017, Alexander Arianov et Hans-Dieter Sues, dans le cadre d'une revue des dinosaures sauropodes d'Asie centrale, le rattachent directement au clade des Titanosauria.
 Il s'agit du premier titanosaure découvert en Chine.
 </t>
         </is>
@@ -578,7 +594,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme d'autres de sa famille, Jiangshanosaurus avait probablement une peau épaisse ou une armure de plaques osseuses comme protection.
 </t>
